--- a/results/Trofeo S.A.R Princesa Sofia 2018_Ilca 7.xlsx
+++ b/results/Trofeo S.A.R Princesa Sofia 2018_Ilca 7.xlsx
@@ -457,10 +457,10 @@
     <t>65.0</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>MR</t>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>MEDAL RACE</t>
   </si>
   <si>
     <t>BFD</t>
